--- a/console/Networking/iaas-network/aclMixinsXlsx/vpcAclSubnetListSelect.xlsx
+++ b/console/Networking/iaas-network/aclMixinsXlsx/vpcAclSubnetListSelect.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\18. ACL国际化内容翻译确认\4. 确认后-柴玉梅\2. 客户确认后-上传Github版\ACL国际化内容翻译确认-CT-C-GTCOM Comment1106-R\aclMixinsXlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,18 +41,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>选择需要关联的子网，每个子网只能关联一个网络ACL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>vpcAclSubnetListSelect_i18nKey_2</t>
     </r>
   </si>
@@ -192,18 +185,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Select the subnet to be associated, each subnet can only associate one network ACL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Subnet Name</t>
     </r>
   </si>
@@ -216,47 +197,115 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ACL has been associated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No Subnet Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Selected'</t>
     </r>
   </si>
   <si>
-    <t>‘Got Subnet List Under VPC</t>
+    <t>‘Cancel selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Cancel selection</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择需要关联的子网，每个子网只能关联一个网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subnet data</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associated ACL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">‘Got </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subnet Lists in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the VPC</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Select the subnet to be associated, each subnet can only associate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one Network ACL</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +318,21 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -292,8 +356,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,54 +701,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -690,10 +757,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -701,31 +768,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B7" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B7 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>